--- a/biology/Botanique/Famille_des_Traminers/Famille_des_Traminers.xlsx
+++ b/biology/Botanique/Famille_des_Traminers/Famille_des_Traminers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Traminers est un groupe de cépages de Vitis vinifera apparentés de par le même feuillage et seulement distingués par la couleur des baies et les arômes des raisins.
 </t>
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Plusieurs évoquent le village tyrolien de Tramin comme lieu de naissance de cette famille de cépages. Les ampélographes ignorent toujours s'il en est originaire ou s'il y a seulement été cultivé[1].
-Les Alsaciens ont gardé en mémoire que le savagnin rose avait été introduit dans leur vignoble au cours du XVIe siècle, puis une mutation aromatique a été sélectionnée au XIXe siècle, donnant le gewurztraminer[2].
-Géographique
-Cépages bien adaptés au climat continental, on en retrouve la culture en Europe centrale. En Allemagne, en Autriche, en France (Alsace, Jura), Croatie ([vignoble en est de pays]) ou en Suisse, leur culture est florissante.
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs évoquent le village tyrolien de Tramin comme lieu de naissance de cette famille de cépages. Les ampélographes ignorent toujours s'il en est originaire ou s'il y a seulement été cultivé.
+Les Alsaciens ont gardé en mémoire que le savagnin rose avait été introduit dans leur vignoble au cours du XVIe siècle, puis une mutation aromatique a été sélectionnée au XIXe siècle, donnant le gewurztraminer.
 </t>
         </is>
       </c>
@@ -543,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cépages bien adaptés au climat continental, on en retrouve la culture en Europe centrale. En Allemagne, en Autriche, en France (Alsace, Jura), Croatie ([vignoble en est de pays]) ou en Suisse, leur culture est florissante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Famille_des_Traminers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Famille_des_Traminers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Cépages de la famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>aubin blanc : cépage lorrain peu cultivé descendant du savagnin blanc et du gouais ;
 gewurztraminer : une forme très aromatique du savagnin rose (en allemand, Gewürz signifie « épice ») ;
